--- a/Rayado del Libro Mayor.xlsx
+++ b/Rayado del Libro Mayor.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Espin\OneDrive\Escritorio\Contabilidad Financiera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E48346F-078D-40EA-B463-FFB2B1371B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4760ECE1-C9DC-42D0-AD8C-886930454365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00223454-C872-4A65-81CD-1BD3DFF3C7AB}"/>
+    <workbookView minimized="1" xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="4" xr2:uid="{00223454-C872-4A65-81CD-1BD3DFF3C7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilizado en Nicaragua" sheetId="4" r:id="rId1"/>
     <sheet name="Utilizado en Libros" sheetId="3" r:id="rId2"/>
     <sheet name="Utilizado en Excel" sheetId="5" r:id="rId3"/>
+    <sheet name="fines Academicos" sheetId="6" r:id="rId4"/>
+    <sheet name="formato+usado" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="42">
   <si>
     <t>Parcial</t>
   </si>
@@ -116,16 +118,98 @@
   </si>
   <si>
     <t>Movimientos del mes de enero 2025</t>
+  </si>
+  <si>
+    <t>haber</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>cuenta relativa o contra cuenta</t>
+  </si>
+  <si>
+    <t>numero de asiento del diario</t>
+  </si>
+  <si>
+    <t>numero del folio de la cuenta relativa o contracuenta</t>
+  </si>
+  <si>
+    <t>cargos</t>
+  </si>
+  <si>
+    <t>abonos</t>
+  </si>
+  <si>
+    <t>BANCOS</t>
+  </si>
+  <si>
+    <t>VARIOS</t>
+  </si>
+  <si>
+    <t>Moviliario y Equipo de Oficina</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>CLIENTES</t>
+  </si>
+  <si>
+    <t>GASTOS DE VENTA</t>
+  </si>
+  <si>
+    <t>GASTOS DE ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>IVA POR PAGAR</t>
+  </si>
+  <si>
+    <t>RETENCIONES EN LA FUENTE</t>
+  </si>
+  <si>
+    <t>AJ5</t>
+  </si>
+  <si>
+    <t>AJ6</t>
+  </si>
+  <si>
+    <t>AJ7</t>
+  </si>
+  <si>
+    <t>AJ9</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>FOLIO DE DIARIO</t>
+  </si>
+  <si>
+    <t>MOVILIARIO Y EQUIPO DE OFICINA</t>
+  </si>
+  <si>
+    <t>RETENCION EN LA FUENTE 2%</t>
+  </si>
+  <si>
+    <t>INVENTARIO</t>
+  </si>
+  <si>
+    <t>COSTOS DE VENTA</t>
+  </si>
+  <si>
+    <t>COSTO DE VENTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;C$&quot;* #,##0.00_);_(&quot;C$&quot;* \(#,##0.00\);_(&quot;C$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,16 +237,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -227,12 +325,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -258,13 +413,53 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -583,7 +778,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,15 +790,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>1</v>
       </c>
     </row>
@@ -627,41 +822,41 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <f ca="1">+TODAY()</f>
-        <v>45697</v>
+        <v>45718</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>20000</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>9000</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>11000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -676,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE44A3B5-12D8-46FF-8E14-0EC00BA4D449}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -777,7 +972,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,17 +985,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="12">
         <v>1</v>
       </c>
     </row>
@@ -830,7 +1025,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <f ca="1">+TODAY()</f>
-        <v>45697</v>
+        <v>45718</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
@@ -841,11 +1036,11 @@
       <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>100</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13">
         <v>100</v>
       </c>
     </row>
@@ -854,27 +1049,27 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -883,4 +1078,1036 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD32A251-6013-4E3B-B509-6224474783CD}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="20">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16">
+        <v>3</v>
+      </c>
+      <c r="D3" s="19">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16">
+        <v>5</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16">
+        <v>2</v>
+      </c>
+      <c r="H3" s="16">
+        <v>3</v>
+      </c>
+      <c r="I3" s="19">
+        <v>4</v>
+      </c>
+      <c r="J3" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>45659</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="29">
+        <v>50000</v>
+      </c>
+      <c r="F4" s="28">
+        <v>45659</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="16">
+        <v>2</v>
+      </c>
+      <c r="I4" s="19">
+        <v>8</v>
+      </c>
+      <c r="J4" s="30">
+        <v>24000</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>45660</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="16">
+        <v>3</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="29">
+        <v>10080</v>
+      </c>
+      <c r="F5" s="28">
+        <v>45664</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="16">
+        <v>5</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="30">
+        <v>22400</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>45664</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="16">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19">
+        <v>5</v>
+      </c>
+      <c r="E6" s="29">
+        <v>48695.65</v>
+      </c>
+      <c r="F6" s="28">
+        <v>45664</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="16">
+        <v>6</v>
+      </c>
+      <c r="I6" s="19">
+        <v>12</v>
+      </c>
+      <c r="J6" s="30">
+        <v>970</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>45671</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="16">
+        <v>8</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="29">
+        <v>25200</v>
+      </c>
+      <c r="F7" s="28">
+        <v>45670</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="16">
+        <v>7</v>
+      </c>
+      <c r="I7" s="19">
+        <v>13</v>
+      </c>
+      <c r="J7" s="29">
+        <v>750</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="28">
+        <v>45672</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="16">
+        <v>9</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="29">
+        <v>11000</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="28">
+        <v>45672</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="19">
+        <v>20</v>
+      </c>
+      <c r="J9" s="29">
+        <v>3750</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="28">
+        <v>45672</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="19">
+        <v>25</v>
+      </c>
+      <c r="J10" s="29">
+        <v>420</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="28">
+        <v>45672</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="29">
+        <v>210.22</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="28">
+        <v>45688</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="29">
+        <v>70475.429999999993</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="33">
+        <f>SUM(E4:E12)</f>
+        <v>133975.65</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="33">
+        <f>SUM(J4:J12)</f>
+        <v>133975.65</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="31"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="16">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="16">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="16">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661A353D-037B-4E48-8F7A-70ACF9B47742}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>45659</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="34">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>25000</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>45659</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>50000</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>45659</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14">
+        <v>24000</v>
+      </c>
+      <c r="F10" s="14">
+        <f>+F9+D10-E10</f>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>45662</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <v>10080</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14">
+        <f t="shared" ref="F11:F20" si="0">+F10+D11-E11</f>
+        <v>36080</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>45664</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="36">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14">
+        <v>48695.65</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14">
+        <f t="shared" si="0"/>
+        <v>84775.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>45664</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="36">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14">
+        <v>22400</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="0"/>
+        <v>62375.649999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>45664</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="36">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14">
+        <v>970</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="0"/>
+        <v>61405.649999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>45670</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="36">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14">
+        <v>750</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="0"/>
+        <v>60655.649999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>45671</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="36">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>25200</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14">
+        <f t="shared" si="0"/>
+        <v>85855.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>45672</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="36">
+        <v>3</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14">
+        <v>11000</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="0"/>
+        <v>74855.649999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>45672</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="36">
+        <v>3</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14">
+        <v>3750</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="0"/>
+        <v>71105.649999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>45672</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="36">
+        <v>3</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14">
+        <v>420</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="0"/>
+        <v>70685.649999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>45672</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="36">
+        <v>3</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14">
+        <v>210.22</v>
+      </c>
+      <c r="F20" s="37">
+        <f t="shared" si="0"/>
+        <v>70475.429999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>45659</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="36">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13">
+        <v>75000</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>45662</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14">
+        <v>20000</v>
+      </c>
+      <c r="F25" s="14">
+        <f>+F24+D25-E25</f>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>45664</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="14">
+        <v>50000</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14">
+        <f t="shared" ref="F26:F27" si="1">+F25+D26-E26</f>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>45671</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14">
+        <v>27000</v>
+      </c>
+      <c r="F27" s="37">
+        <f t="shared" si="1"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>45659</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="36">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13">
+        <v>75000</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>45662</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14">
+        <v>20000</v>
+      </c>
+      <c r="F32" s="14">
+        <f>+F31+D32-E32</f>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>45664</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="14">
+        <v>50000</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14">
+        <f t="shared" ref="F33:F34" si="2">+F32+D33-E33</f>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>45671</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14">
+        <v>27000</v>
+      </c>
+      <c r="F34" s="37">
+        <f t="shared" si="2"/>
+        <v>78000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A29:D29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>